--- a/SoapUIWorkspace/testData/SOAPUIAutomationFramework.xlsx
+++ b/SoapUIWorkspace/testData/SOAPUIAutomationFramework.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Execute</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>DKK</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,12 +665,39 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
